--- a/data/pca/factorExposure/factorExposure_2018-07-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03234557006553896</v>
+        <v>-0.02549255823464416</v>
       </c>
       <c r="C2">
-        <v>0.03136289552852223</v>
+        <v>-0.01738026261377336</v>
       </c>
       <c r="D2">
-        <v>-0.01185615082235285</v>
+        <v>0.01697948004021694</v>
       </c>
       <c r="E2">
-        <v>0.02359262271150942</v>
+        <v>0.01330006685809463</v>
       </c>
       <c r="F2">
-        <v>-0.1129307374485054</v>
+        <v>0.00288471786053605</v>
       </c>
       <c r="G2">
-        <v>0.07295157191322099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.05499895183567724</v>
+      </c>
+      <c r="H2">
+        <v>-0.04082841054116459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1204672506200903</v>
+        <v>-0.07888305415730892</v>
       </c>
       <c r="C3">
-        <v>0.0282965036910235</v>
+        <v>0.01197626769345333</v>
       </c>
       <c r="D3">
-        <v>0.05092400934936887</v>
+        <v>0.01503982608537777</v>
       </c>
       <c r="E3">
-        <v>0.04020636524857141</v>
+        <v>0.006006115253856584</v>
       </c>
       <c r="F3">
-        <v>-0.335424892731088</v>
+        <v>-0.0490707896051674</v>
       </c>
       <c r="G3">
-        <v>0.2124500797569571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1830249901363318</v>
+      </c>
+      <c r="H3">
+        <v>-0.1415168306125178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05426241762131014</v>
+        <v>-0.04824615285334447</v>
       </c>
       <c r="C4">
-        <v>-0.001648958740729918</v>
+        <v>-0.003666835239433475</v>
       </c>
       <c r="D4">
-        <v>-0.03908599089368471</v>
+        <v>0.04119122262049834</v>
       </c>
       <c r="E4">
-        <v>0.06172330998741769</v>
+        <v>-0.01934678458559473</v>
       </c>
       <c r="F4">
-        <v>-0.07457017183083957</v>
+        <v>0.04817532416872303</v>
       </c>
       <c r="G4">
-        <v>0.06879343655953801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04287346826572289</v>
+      </c>
+      <c r="H4">
+        <v>-0.05091205188949863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01341102207195356</v>
+        <v>-0.02681198192471084</v>
       </c>
       <c r="C6">
-        <v>0.008840268538479952</v>
+        <v>-0.003797919424479315</v>
       </c>
       <c r="D6">
-        <v>0.007406558359308832</v>
+        <v>0.05178766606315442</v>
       </c>
       <c r="E6">
-        <v>0.02229816202372348</v>
+        <v>-0.004271886595413645</v>
       </c>
       <c r="F6">
-        <v>-0.01587523819091726</v>
+        <v>0.03125931121263879</v>
       </c>
       <c r="G6">
-        <v>-0.0001457868654523463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01301850422450508</v>
+      </c>
+      <c r="H6">
+        <v>-0.05958115476081023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02453306456186232</v>
+        <v>-0.02054419799037197</v>
       </c>
       <c r="C7">
-        <v>0.004183525125563717</v>
+        <v>-0.00329595083323531</v>
       </c>
       <c r="D7">
-        <v>0.005580654558900714</v>
+        <v>0.02436696036424305</v>
       </c>
       <c r="E7">
-        <v>0.03445517153116099</v>
+        <v>-0.03606558199504201</v>
       </c>
       <c r="F7">
-        <v>-0.05020538328617927</v>
+        <v>0.008189110428789627</v>
       </c>
       <c r="G7">
-        <v>0.07013053348720796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0234655879619209</v>
+      </c>
+      <c r="H7">
+        <v>-0.03654725985577979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02036815863559507</v>
+        <v>-0.006800604540861174</v>
       </c>
       <c r="C8">
-        <v>-0.002335449737891501</v>
+        <v>0.002143487226494202</v>
       </c>
       <c r="D8">
-        <v>-0.01109940596895066</v>
+        <v>0.01033772162271357</v>
       </c>
       <c r="E8">
-        <v>0.06285630666253333</v>
+        <v>-0.009997563671416325</v>
       </c>
       <c r="F8">
-        <v>-0.08888403827632939</v>
+        <v>0.01619681417463929</v>
       </c>
       <c r="G8">
-        <v>0.09138075969892652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05029734604944947</v>
+      </c>
+      <c r="H8">
+        <v>-0.03075897815361681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04548250000325389</v>
+        <v>-0.03994495296702924</v>
       </c>
       <c r="C9">
-        <v>-0.0094594574521564</v>
+        <v>0.0005803403764730972</v>
       </c>
       <c r="D9">
-        <v>-0.03109382367361756</v>
+        <v>0.0331071756990125</v>
       </c>
       <c r="E9">
-        <v>0.06219080358367112</v>
+        <v>-0.01751609538291072</v>
       </c>
       <c r="F9">
-        <v>-0.07242496284261891</v>
+        <v>0.02324374029953267</v>
       </c>
       <c r="G9">
-        <v>0.06446722595956415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04951184644603303</v>
+      </c>
+      <c r="H9">
+        <v>-0.048323494562937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03079990642619252</v>
+        <v>-0.09991937836435362</v>
       </c>
       <c r="C10">
-        <v>-0.03135943774653546</v>
+        <v>0.03033397396607427</v>
       </c>
       <c r="D10">
-        <v>-0.02552888613279321</v>
+        <v>-0.1519810136967623</v>
       </c>
       <c r="E10">
-        <v>-0.1179768950822048</v>
+        <v>0.009398805770471754</v>
       </c>
       <c r="F10">
-        <v>-0.05544243390043377</v>
+        <v>-0.0499063108897093</v>
       </c>
       <c r="G10">
-        <v>-0.008375223642590579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02413301747343931</v>
+      </c>
+      <c r="H10">
+        <v>-0.003633118243861946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03663172820414547</v>
+        <v>-0.02153783885788328</v>
       </c>
       <c r="C11">
-        <v>0.01944329665416893</v>
+        <v>0.008178870526345607</v>
       </c>
       <c r="D11">
-        <v>-0.001147274603480014</v>
+        <v>0.03693662327970542</v>
       </c>
       <c r="E11">
-        <v>0.03716334863472822</v>
+        <v>0.005141991362201458</v>
       </c>
       <c r="F11">
-        <v>-0.03916273814641494</v>
+        <v>0.01020770744008591</v>
       </c>
       <c r="G11">
-        <v>0.02791165564848428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02626098021596451</v>
+      </c>
+      <c r="H11">
+        <v>-0.04154646302272471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04425878926505672</v>
+        <v>-0.03022208679316113</v>
       </c>
       <c r="C12">
-        <v>0.007553147171648232</v>
+        <v>0.006626742715520171</v>
       </c>
       <c r="D12">
-        <v>-0.00877777976255421</v>
+        <v>0.03821400194622866</v>
       </c>
       <c r="E12">
-        <v>0.04439941660951529</v>
+        <v>-0.006399790637190438</v>
       </c>
       <c r="F12">
-        <v>-0.02692075388302541</v>
+        <v>0.01695838369343136</v>
       </c>
       <c r="G12">
-        <v>0.01950000886510818</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01163827028916683</v>
+      </c>
+      <c r="H12">
+        <v>-0.02171951945551983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01887849627019372</v>
+        <v>-0.02573165306833365</v>
       </c>
       <c r="C13">
-        <v>0.03211152872241538</v>
+        <v>-0.01384541404073156</v>
       </c>
       <c r="D13">
-        <v>-0.006651566522479681</v>
+        <v>0.002483788297945481</v>
       </c>
       <c r="E13">
-        <v>0.0104515072859482</v>
+        <v>0.01726704983571271</v>
       </c>
       <c r="F13">
-        <v>-0.07572642067377743</v>
+        <v>0.008838463789638493</v>
       </c>
       <c r="G13">
-        <v>0.0496791435790845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05082280449952215</v>
+      </c>
+      <c r="H13">
+        <v>-0.04868319474118141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01107238676281357</v>
+        <v>-0.01586943994943696</v>
       </c>
       <c r="C14">
-        <v>0.005582847694230021</v>
+        <v>-0.0009382077365592538</v>
       </c>
       <c r="D14">
-        <v>-0.007139989326021206</v>
+        <v>0.00596379925780477</v>
       </c>
       <c r="E14">
-        <v>0.0373415195146871</v>
+        <v>-0.007806984754942445</v>
       </c>
       <c r="F14">
-        <v>-0.04964996784519041</v>
+        <v>0.01450061470664254</v>
       </c>
       <c r="G14">
-        <v>0.07775825731287499</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04338895264399615</v>
+      </c>
+      <c r="H14">
+        <v>0.0004575541673237731</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02772342157921484</v>
+        <v>-0.02309571378215628</v>
       </c>
       <c r="C16">
-        <v>0.01830265790538889</v>
+        <v>0.00880405321632453</v>
       </c>
       <c r="D16">
-        <v>-0.003331108850806345</v>
+        <v>0.03344869118168226</v>
       </c>
       <c r="E16">
-        <v>0.03285625636702092</v>
+        <v>0.0001365828977504126</v>
       </c>
       <c r="F16">
-        <v>-0.04534529723837567</v>
+        <v>0.01550984069127562</v>
       </c>
       <c r="G16">
-        <v>0.03077933155614936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02464185117517105</v>
+      </c>
+      <c r="H16">
+        <v>-0.03481899302508568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04280041106316981</v>
+        <v>-0.0339824818553408</v>
       </c>
       <c r="C19">
-        <v>0.0186228465554535</v>
+        <v>-8.353579283933577e-06</v>
       </c>
       <c r="D19">
-        <v>-0.0009920942843046996</v>
+        <v>0.01598399231725712</v>
       </c>
       <c r="E19">
-        <v>0.0470128099737793</v>
+        <v>0.001133951786350767</v>
       </c>
       <c r="F19">
-        <v>-0.09544353533789382</v>
+        <v>0.01919271655337267</v>
       </c>
       <c r="G19">
-        <v>0.0598353362051625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.06138899063743262</v>
+      </c>
+      <c r="H19">
+        <v>-0.06122607880244786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001405346818429351</v>
+        <v>-0.01023508987974305</v>
       </c>
       <c r="C20">
-        <v>0.01201199181437885</v>
+        <v>-0.006559010109455639</v>
       </c>
       <c r="D20">
-        <v>-0.0145414570689692</v>
+        <v>0.005388136696610669</v>
       </c>
       <c r="E20">
-        <v>0.03459384722564404</v>
+        <v>0.0001553811964812752</v>
       </c>
       <c r="F20">
-        <v>-0.04962513946868149</v>
+        <v>0.00901798085484069</v>
       </c>
       <c r="G20">
-        <v>0.08300935851191038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04849227965289268</v>
+      </c>
+      <c r="H20">
+        <v>-0.009259487098247697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0006119264802448308</v>
+        <v>-0.01863588089978332</v>
       </c>
       <c r="C21">
-        <v>0.0006264545771434496</v>
+        <v>-0.006990988296269577</v>
       </c>
       <c r="D21">
-        <v>0.01149769404786517</v>
+        <v>0.009085078313332884</v>
       </c>
       <c r="E21">
-        <v>0.03783924352585094</v>
+        <v>-0.01081624031734421</v>
       </c>
       <c r="F21">
-        <v>-0.06080068901015389</v>
+        <v>0.004681887396056791</v>
       </c>
       <c r="G21">
-        <v>0.04145502668084383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.05027649978983249</v>
+      </c>
+      <c r="H21">
+        <v>-0.0276016666909809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03404038384709124</v>
+        <v>-0.02080707748023599</v>
       </c>
       <c r="C24">
-        <v>0.01525957414697103</v>
+        <v>0.003188031661783339</v>
       </c>
       <c r="D24">
-        <v>-0.01030137080231549</v>
+        <v>0.03344963256806824</v>
       </c>
       <c r="E24">
-        <v>0.01873834387512385</v>
+        <v>1.006767804401271e-05</v>
       </c>
       <c r="F24">
-        <v>-0.03897540449566764</v>
+        <v>0.009176667666667122</v>
       </c>
       <c r="G24">
-        <v>0.0270168756399238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02081740085212557</v>
+      </c>
+      <c r="H24">
+        <v>-0.03694304252634573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03205005239056808</v>
+        <v>-0.02984256088474345</v>
       </c>
       <c r="C25">
-        <v>0.009027426416137648</v>
+        <v>0.001004725063569212</v>
       </c>
       <c r="D25">
-        <v>-0.00191131386725754</v>
+        <v>0.0332296900214178</v>
       </c>
       <c r="E25">
-        <v>0.04090505888986293</v>
+        <v>-0.001558887673649784</v>
       </c>
       <c r="F25">
-        <v>-0.04056002239390958</v>
+        <v>0.01589490932178172</v>
       </c>
       <c r="G25">
-        <v>0.01186435098747298</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02481081707789172</v>
+      </c>
+      <c r="H25">
+        <v>-0.04047391407452546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02300743096100797</v>
+        <v>-0.0207684647215767</v>
       </c>
       <c r="C26">
-        <v>0.02620902344804847</v>
+        <v>-0.01682753532359759</v>
       </c>
       <c r="D26">
-        <v>0.01786292129898823</v>
+        <v>0.002758765604039867</v>
       </c>
       <c r="E26">
-        <v>0.03247482394971019</v>
+        <v>0.007332807680474536</v>
       </c>
       <c r="F26">
-        <v>-0.06400828603121153</v>
+        <v>-0.0001105981865075642</v>
       </c>
       <c r="G26">
-        <v>0.04473210367773511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03250629954567327</v>
+      </c>
+      <c r="H26">
+        <v>-0.0146996707735504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.06827428575946172</v>
+        <v>-0.02684432685237696</v>
       </c>
       <c r="C27">
-        <v>0.006044902765538087</v>
+        <v>0.01051959676444754</v>
       </c>
       <c r="D27">
-        <v>-0.05160594870910595</v>
+        <v>0.016490928586852</v>
       </c>
       <c r="E27">
-        <v>0.03932640139055871</v>
+        <v>-0.005040820607435449</v>
       </c>
       <c r="F27">
-        <v>-0.04495625398269139</v>
+        <v>0.02038565141141968</v>
       </c>
       <c r="G27">
-        <v>0.04501362837262159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01926751216791929</v>
+      </c>
+      <c r="H27">
+        <v>-0.005212005754702177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04693680843610121</v>
+        <v>-0.1485078963120694</v>
       </c>
       <c r="C28">
-        <v>-0.04894551567603746</v>
+        <v>0.03163490792567711</v>
       </c>
       <c r="D28">
-        <v>-0.04646643184438173</v>
+        <v>-0.2253448238318302</v>
       </c>
       <c r="E28">
-        <v>-0.1786531785860073</v>
+        <v>0.006591990985428937</v>
       </c>
       <c r="F28">
-        <v>-0.06754991877012644</v>
+        <v>-0.05926676683024789</v>
       </c>
       <c r="G28">
-        <v>0.01929594918392002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01301003798696237</v>
+      </c>
+      <c r="H28">
+        <v>0.01949785168730903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02068133184583007</v>
+        <v>-0.02092076062905328</v>
       </c>
       <c r="C29">
-        <v>-0.00160226766788696</v>
+        <v>0.001279625317078116</v>
       </c>
       <c r="D29">
-        <v>-0.01286068545359088</v>
+        <v>0.008861111569563731</v>
       </c>
       <c r="E29">
-        <v>0.04915132662375894</v>
+        <v>-0.009306916399449821</v>
       </c>
       <c r="F29">
-        <v>-0.03992458238719267</v>
+        <v>0.01664077224306991</v>
       </c>
       <c r="G29">
-        <v>0.07049506230404924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03895118725388212</v>
+      </c>
+      <c r="H29">
+        <v>0.004023739122448277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09312395435829833</v>
+        <v>-0.05218840479648319</v>
       </c>
       <c r="C30">
-        <v>0.04973506033921476</v>
+        <v>-0.004624004867720107</v>
       </c>
       <c r="D30">
-        <v>-0.03353349691350331</v>
+        <v>0.06722394520241724</v>
       </c>
       <c r="E30">
-        <v>0.08128742527489483</v>
+        <v>0.03638389700424211</v>
       </c>
       <c r="F30">
-        <v>-0.0867469669989346</v>
+        <v>0.04813579984982221</v>
       </c>
       <c r="G30">
-        <v>0.05538492965786905</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05709607066135292</v>
+      </c>
+      <c r="H30">
+        <v>-0.06382865004786314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06377467044887015</v>
+        <v>-0.05510048473461376</v>
       </c>
       <c r="C31">
-        <v>0.03906965535363492</v>
+        <v>0.01509596968697731</v>
       </c>
       <c r="D31">
-        <v>0.0003389514969559841</v>
+        <v>0.02774784396393492</v>
       </c>
       <c r="E31">
-        <v>0.02958420151777615</v>
+        <v>0.008978131940335171</v>
       </c>
       <c r="F31">
-        <v>-0.02837156179919251</v>
+        <v>0.0145936833577185</v>
       </c>
       <c r="G31">
-        <v>0.08921267591383908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02101879454952852</v>
+      </c>
+      <c r="H31">
+        <v>0.001213525221304621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02154540660930776</v>
+        <v>-0.009878148955953216</v>
       </c>
       <c r="C32">
-        <v>0.01175661123068708</v>
+        <v>0.01341563735497978</v>
       </c>
       <c r="D32">
-        <v>-0.0141179333450233</v>
+        <v>0.002937905996030368</v>
       </c>
       <c r="E32">
-        <v>0.08160166008846879</v>
+        <v>-0.01949896199151275</v>
       </c>
       <c r="F32">
-        <v>-0.05629504410082607</v>
+        <v>0.04008884811458169</v>
       </c>
       <c r="G32">
-        <v>0.05415890886169446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03693958544351085</v>
+      </c>
+      <c r="H32">
+        <v>-0.05863541194948681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05404740714080795</v>
+        <v>-0.03879321793870554</v>
       </c>
       <c r="C33">
-        <v>0.03282517513014371</v>
+        <v>0.0009256718039626353</v>
       </c>
       <c r="D33">
-        <v>0.02013150250200935</v>
+        <v>0.02913863406716213</v>
       </c>
       <c r="E33">
-        <v>0.05953229176623979</v>
+        <v>0.02549683211714981</v>
       </c>
       <c r="F33">
-        <v>-0.08404680512096142</v>
+        <v>-0.001628512205425581</v>
       </c>
       <c r="G33">
-        <v>0.06638575058674027</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.05087843440433255</v>
+      </c>
+      <c r="H33">
+        <v>-0.03678773995706879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03561557916321698</v>
+        <v>-0.02760793866425197</v>
       </c>
       <c r="C34">
-        <v>0.01568748021031744</v>
+        <v>0.01738645802273239</v>
       </c>
       <c r="D34">
-        <v>-0.01165322993122245</v>
+        <v>0.03493443534386582</v>
       </c>
       <c r="E34">
-        <v>0.04169604190719197</v>
+        <v>-0.005289957115458811</v>
       </c>
       <c r="F34">
-        <v>-0.05242337042676079</v>
+        <v>0.0174357755059274</v>
       </c>
       <c r="G34">
-        <v>0.02102287648409379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02221803585350366</v>
+      </c>
+      <c r="H34">
+        <v>-0.03487134245417099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01574425966656222</v>
+        <v>-0.02154369015106456</v>
       </c>
       <c r="C36">
-        <v>0.003547261650391952</v>
+        <v>-0.003574104148746409</v>
       </c>
       <c r="D36">
-        <v>-0.004909225229067245</v>
+        <v>-0.000495797826342419</v>
       </c>
       <c r="E36">
-        <v>0.02980040612007302</v>
+        <v>-0.002215758472533734</v>
       </c>
       <c r="F36">
-        <v>-0.03042398533131318</v>
+        <v>0.004845035500662158</v>
       </c>
       <c r="G36">
-        <v>0.0444383420451561</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0210583857400668</v>
+      </c>
+      <c r="H36">
+        <v>-0.004866427558558672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003678114524711455</v>
+        <v>-0.02336130058788092</v>
       </c>
       <c r="C38">
-        <v>-0.009879447719890022</v>
+        <v>0.01660371550076115</v>
       </c>
       <c r="D38">
-        <v>0.0154047678746639</v>
+        <v>0.002023473427529435</v>
       </c>
       <c r="E38">
-        <v>-0.004787425374606531</v>
+        <v>-0.003524469143345375</v>
       </c>
       <c r="F38">
-        <v>-0.04609311612872751</v>
+        <v>0.005836816979065231</v>
       </c>
       <c r="G38">
-        <v>-0.0005728512303127134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02430887128379016</v>
+      </c>
+      <c r="H38">
+        <v>-0.0374037875006904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0421647682958738</v>
+        <v>-0.01962380119172169</v>
       </c>
       <c r="C39">
-        <v>0.03238843470851119</v>
+        <v>0.0007761821308685894</v>
       </c>
       <c r="D39">
-        <v>-0.01101405272925441</v>
+        <v>0.07478468785737682</v>
       </c>
       <c r="E39">
-        <v>0.04710722576894858</v>
+        <v>0.00524645359392481</v>
       </c>
       <c r="F39">
-        <v>-0.06191097309251262</v>
+        <v>0.02030310292794455</v>
       </c>
       <c r="G39">
-        <v>0.02971879891277006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04350523406290845</v>
+      </c>
+      <c r="H39">
+        <v>-0.06842550438784714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03608994500528395</v>
+        <v>-0.0335340307681356</v>
       </c>
       <c r="C40">
-        <v>0.06441096651890757</v>
+        <v>0.001595307561533983</v>
       </c>
       <c r="D40">
-        <v>-0.01973726151294002</v>
+        <v>0.01808909195239338</v>
       </c>
       <c r="E40">
-        <v>0.0310976830356235</v>
+        <v>0.02391889221813422</v>
       </c>
       <c r="F40">
-        <v>-0.06709281695963591</v>
+        <v>0.02484307788178156</v>
       </c>
       <c r="G40">
-        <v>0.05536987674161818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02695994891281346</v>
+      </c>
+      <c r="H40">
+        <v>-0.06515696960390965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0007764988300363036</v>
+        <v>-0.01205821739802417</v>
       </c>
       <c r="C41">
-        <v>0.001211463151359871</v>
+        <v>0.0001527212210110948</v>
       </c>
       <c r="D41">
-        <v>0.002795544339463814</v>
+        <v>-0.01259583085345275</v>
       </c>
       <c r="E41">
-        <v>0.01309174112606262</v>
+        <v>0.001075745707064877</v>
       </c>
       <c r="F41">
-        <v>0.004603132638466002</v>
+        <v>-0.0002437787739505127</v>
       </c>
       <c r="G41">
-        <v>0.05395879822610648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006072976321560618</v>
+      </c>
+      <c r="H41">
+        <v>0.009904738057757396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3800039958774927</v>
+        <v>-0.1909007211644556</v>
       </c>
       <c r="C42">
-        <v>-0.1206950367388957</v>
+        <v>-0.07833846319282414</v>
       </c>
       <c r="D42">
-        <v>0.8652240817673771</v>
+        <v>0.3788099521427044</v>
       </c>
       <c r="E42">
-        <v>-0.1369311302204037</v>
+        <v>0.158088328298823</v>
       </c>
       <c r="F42">
-        <v>0.1923084033866598</v>
+        <v>-0.8494942603049308</v>
       </c>
       <c r="G42">
-        <v>0.03055114373907336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.2160140580247716</v>
+      </c>
+      <c r="H42">
+        <v>0.04209096750439546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00569803218385063</v>
+        <v>-0.01085611503554185</v>
       </c>
       <c r="C43">
-        <v>0.004968015831551809</v>
+        <v>-0.001880564786744665</v>
       </c>
       <c r="D43">
-        <v>0.01462740956698116</v>
+        <v>-0.01623626328018579</v>
       </c>
       <c r="E43">
-        <v>0.01807939295761565</v>
+        <v>0.00720879099516788</v>
       </c>
       <c r="F43">
-        <v>-0.01562705906113223</v>
+        <v>-0.009797411900920785</v>
       </c>
       <c r="G43">
-        <v>0.05770698702931664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008645864821909136</v>
+      </c>
+      <c r="H43">
+        <v>0.001739043865327751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01522239037285643</v>
+        <v>-0.01377113919155235</v>
       </c>
       <c r="C44">
-        <v>0.009285563643761457</v>
+        <v>0.0008945023345256662</v>
       </c>
       <c r="D44">
-        <v>0.01366234316536302</v>
+        <v>0.01792223732747139</v>
       </c>
       <c r="E44">
-        <v>0.03966618150021739</v>
+        <v>-0.002088145252149411</v>
       </c>
       <c r="F44">
-        <v>-0.1090556943516359</v>
+        <v>-0.005308985176682646</v>
       </c>
       <c r="G44">
-        <v>0.1214805517871638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04617218274769765</v>
+      </c>
+      <c r="H44">
+        <v>-0.04929956694847992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01921728999607095</v>
+        <v>-0.01887311880612721</v>
       </c>
       <c r="C46">
-        <v>0.0130776850789994</v>
+        <v>-0.003651307340053116</v>
       </c>
       <c r="D46">
-        <v>0.007983593173086074</v>
+        <v>0.01552090267203352</v>
       </c>
       <c r="E46">
-        <v>0.059814402539143</v>
+        <v>0.001730661914149102</v>
       </c>
       <c r="F46">
-        <v>-0.05476026836443846</v>
+        <v>0.01413828187765383</v>
       </c>
       <c r="G46">
-        <v>0.07880142622722144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05149537511422897</v>
+      </c>
+      <c r="H46">
+        <v>-0.007899121391556121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09958769080071421</v>
+        <v>-0.07536645606578615</v>
       </c>
       <c r="C47">
-        <v>0.03131660875367574</v>
+        <v>0.03025105966266229</v>
       </c>
       <c r="D47">
-        <v>-0.0184559923231927</v>
+        <v>0.04121109873588805</v>
       </c>
       <c r="E47">
-        <v>0.03320929309302664</v>
+        <v>0.005299439433725228</v>
       </c>
       <c r="F47">
-        <v>0.002416274758639071</v>
+        <v>0.0235906172334631</v>
       </c>
       <c r="G47">
-        <v>0.08961546417350211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.005321641329360741</v>
+      </c>
+      <c r="H47">
+        <v>0.02649905168046823</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0181953126457137</v>
+        <v>-0.02296797611987808</v>
       </c>
       <c r="C48">
-        <v>0.01239100114624931</v>
+        <v>0.006941216958565053</v>
       </c>
       <c r="D48">
-        <v>0.003348609601686473</v>
+        <v>0.004337823333135984</v>
       </c>
       <c r="E48">
-        <v>0.03324890612864348</v>
+        <v>0.002649813297543364</v>
       </c>
       <c r="F48">
-        <v>-0.04856734468342087</v>
+        <v>0.007226391145138567</v>
       </c>
       <c r="G48">
-        <v>0.030809074852223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02672709142604812</v>
+      </c>
+      <c r="H48">
+        <v>-0.01329578410423045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09332758704196713</v>
+        <v>-0.0731474847110629</v>
       </c>
       <c r="C50">
-        <v>0.03572273391206213</v>
+        <v>0.02734595040001727</v>
       </c>
       <c r="D50">
-        <v>-0.007781747708382597</v>
+        <v>0.04504841929402637</v>
       </c>
       <c r="E50">
-        <v>0.05261181767366122</v>
+        <v>-0.008896554803916315</v>
       </c>
       <c r="F50">
-        <v>-0.03563141302706885</v>
+        <v>0.02091519641122151</v>
       </c>
       <c r="G50">
-        <v>0.05318286189613504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02013805972572557</v>
+      </c>
+      <c r="H50">
+        <v>0.008942068135300863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01626059899420203</v>
+        <v>-0.01814539761288054</v>
       </c>
       <c r="C51">
-        <v>0.01389738029538723</v>
+        <v>-0.001566995749340364</v>
       </c>
       <c r="D51">
-        <v>0.01487819935709032</v>
+        <v>-0.009642574051021036</v>
       </c>
       <c r="E51">
-        <v>0.0044776260503748</v>
+        <v>0.005538962450999607</v>
       </c>
       <c r="F51">
-        <v>-0.1219889093693121</v>
+        <v>-0.01401083155124923</v>
       </c>
       <c r="G51">
-        <v>0.07709916463705802</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.05038762165024809</v>
+      </c>
+      <c r="H51">
+        <v>-0.04590690415891041</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1053021013573343</v>
+        <v>-0.09168010248145715</v>
       </c>
       <c r="C53">
-        <v>0.03905682676705474</v>
+        <v>0.03659256556691348</v>
       </c>
       <c r="D53">
-        <v>-0.02572776024917318</v>
+        <v>0.07895807154919565</v>
       </c>
       <c r="E53">
-        <v>0.05438253038134035</v>
+        <v>0.003125660810068566</v>
       </c>
       <c r="F53">
-        <v>0.0569166283451194</v>
+        <v>0.05349716930965615</v>
       </c>
       <c r="G53">
-        <v>0.02689953869410302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04080096509921519</v>
+      </c>
+      <c r="H53">
+        <v>0.04618129722266619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01366965361069705</v>
+        <v>-0.02337659853906113</v>
       </c>
       <c r="C54">
-        <v>0.003821918758568859</v>
+        <v>0.01091363675564959</v>
       </c>
       <c r="D54">
-        <v>-0.01329650675108722</v>
+        <v>-0.01403488450139721</v>
       </c>
       <c r="E54">
-        <v>0.03543365190109688</v>
+        <v>-0.005229443395306422</v>
       </c>
       <c r="F54">
-        <v>-0.04433070164305472</v>
+        <v>0.006288214601023807</v>
       </c>
       <c r="G54">
-        <v>0.1017774528981952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.04018064203371199</v>
+      </c>
+      <c r="H54">
+        <v>0.006567314222982068</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1011649569155457</v>
+        <v>-0.07622725992932596</v>
       </c>
       <c r="C55">
-        <v>0.007317147912685787</v>
+        <v>0.03151857853557044</v>
       </c>
       <c r="D55">
-        <v>-0.02564253666395177</v>
+        <v>0.07599470041299247</v>
       </c>
       <c r="E55">
-        <v>0.05868503099603749</v>
+        <v>-0.008489285104598782</v>
       </c>
       <c r="F55">
-        <v>0.04952796786655065</v>
+        <v>0.04152077990489456</v>
       </c>
       <c r="G55">
-        <v>0.06036927012749004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01895405590864593</v>
+      </c>
+      <c r="H55">
+        <v>0.05095063914134051</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1450334460706419</v>
+        <v>-0.12712556195807</v>
       </c>
       <c r="C56">
-        <v>0.04149132507594149</v>
+        <v>0.05690600217135215</v>
       </c>
       <c r="D56">
-        <v>-0.08357509569866624</v>
+        <v>0.09928747974550708</v>
       </c>
       <c r="E56">
-        <v>0.06082205868853677</v>
+        <v>-0.0005111096351039718</v>
       </c>
       <c r="F56">
-        <v>0.1246801802598394</v>
+        <v>0.08506883133339722</v>
       </c>
       <c r="G56">
-        <v>-0.04648248567327257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07288017657263637</v>
+      </c>
+      <c r="H56">
+        <v>0.05132715596072555</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04587596276052179</v>
+        <v>-0.04176920747879905</v>
       </c>
       <c r="C57">
-        <v>0.0295728711761557</v>
+        <v>-0.009408363133925953</v>
       </c>
       <c r="D57">
-        <v>0.01185007246166027</v>
+        <v>0.02532219061610834</v>
       </c>
       <c r="E57">
-        <v>-0.009240328527944635</v>
+        <v>0.01260019015623469</v>
       </c>
       <c r="F57">
-        <v>-0.07975578066060901</v>
+        <v>0.01115198420287403</v>
       </c>
       <c r="G57">
-        <v>0.05097888764798632</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05685406844644449</v>
+      </c>
+      <c r="H57">
+        <v>-0.03743257788836693</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2132847109206784</v>
+        <v>-0.1485310126889705</v>
       </c>
       <c r="C58">
-        <v>0.1004223038147258</v>
+        <v>0.04249205101313478</v>
       </c>
       <c r="D58">
-        <v>0.03130328256755444</v>
+        <v>0.1546483807147962</v>
       </c>
       <c r="E58">
-        <v>0.1926676049660641</v>
+        <v>0.1369689345379146</v>
       </c>
       <c r="F58">
-        <v>-0.3080206301870821</v>
+        <v>-0.07330625309897799</v>
       </c>
       <c r="G58">
-        <v>0.1133798072473649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8303753919312348</v>
+      </c>
+      <c r="H58">
+        <v>0.3579446351154272</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0485859178079663</v>
+        <v>-0.1556155753509597</v>
       </c>
       <c r="C59">
-        <v>-0.01236350120946405</v>
+        <v>0.04010946135852626</v>
       </c>
       <c r="D59">
-        <v>-0.06012624229902466</v>
+        <v>-0.2215290259877512</v>
       </c>
       <c r="E59">
-        <v>-0.1484160949457369</v>
+        <v>0.02554640703096253</v>
       </c>
       <c r="F59">
-        <v>-0.08121880350108994</v>
+        <v>-0.03734111838665786</v>
       </c>
       <c r="G59">
-        <v>-0.0222488850728672</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.009282746081641747</v>
+      </c>
+      <c r="H59">
+        <v>-0.01625572095909729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1648097551204535</v>
+        <v>-0.1724708208231401</v>
       </c>
       <c r="C60">
-        <v>0.06402594717044467</v>
+        <v>0.03731216006163234</v>
       </c>
       <c r="D60">
-        <v>0.009074939895024224</v>
+        <v>0.02030112218391269</v>
       </c>
       <c r="E60">
-        <v>0.01171758746861068</v>
+        <v>0.05194463174862607</v>
       </c>
       <c r="F60">
-        <v>-0.2036771457572145</v>
+        <v>0.03278068370225218</v>
       </c>
       <c r="G60">
-        <v>-0.3120616177892505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.04258044108951606</v>
+      </c>
+      <c r="H60">
+        <v>-0.3974054251350327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02233405927913009</v>
+        <v>-0.02169193324486823</v>
       </c>
       <c r="C61">
-        <v>0.007711941139442586</v>
+        <v>0.00618981379911832</v>
       </c>
       <c r="D61">
-        <v>0.002683636671154579</v>
+        <v>0.04255855664632054</v>
       </c>
       <c r="E61">
-        <v>0.02389190732059486</v>
+        <v>-0.001412435209312157</v>
       </c>
       <c r="F61">
-        <v>-0.03541944536163284</v>
+        <v>0.01664208823931441</v>
       </c>
       <c r="G61">
-        <v>0.01485033853308784</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02422131648942973</v>
+      </c>
+      <c r="H61">
+        <v>-0.04854577389504353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01744840888394632</v>
+        <v>-0.01265724906770166</v>
       </c>
       <c r="C63">
-        <v>0.01020369683347203</v>
+        <v>-0.002168485424971126</v>
       </c>
       <c r="D63">
-        <v>-0.001280804090498645</v>
+        <v>0.01283293788601074</v>
       </c>
       <c r="E63">
-        <v>0.04658127205489792</v>
+        <v>-0.001614017478998808</v>
       </c>
       <c r="F63">
-        <v>-0.009146197216325634</v>
+        <v>0.01487361800839041</v>
       </c>
       <c r="G63">
-        <v>0.0575370142156339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01661003643548514</v>
+      </c>
+      <c r="H63">
+        <v>0.004111858802437983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03703801902990164</v>
+        <v>-0.0398682157710317</v>
       </c>
       <c r="C64">
-        <v>-0.0151895054111396</v>
+        <v>0.009768414383249172</v>
       </c>
       <c r="D64">
-        <v>-0.01676129809146123</v>
+        <v>0.03982896461345729</v>
       </c>
       <c r="E64">
-        <v>0.04680376003717283</v>
+        <v>-0.009237037183100271</v>
       </c>
       <c r="F64">
-        <v>-0.01113333654998553</v>
+        <v>0.007879098897331687</v>
       </c>
       <c r="G64">
-        <v>0.06760545014608065</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.009472826415648443</v>
+      </c>
+      <c r="H64">
+        <v>-0.03264657721923193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01464672374892698</v>
+        <v>-0.0301586967009503</v>
       </c>
       <c r="C65">
-        <v>0.009744708924561689</v>
+        <v>-0.004265589233475156</v>
       </c>
       <c r="D65">
-        <v>0.008172182223826971</v>
+        <v>0.06067176724916135</v>
       </c>
       <c r="E65">
-        <v>0.02179652862677729</v>
+        <v>-0.006668796080859069</v>
       </c>
       <c r="F65">
-        <v>-0.01196061226737888</v>
+        <v>0.03579396911403034</v>
       </c>
       <c r="G65">
-        <v>-0.005250599638411226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.0004302019112715821</v>
+      </c>
+      <c r="H65">
+        <v>-0.06379552494805428</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04530330009517416</v>
+        <v>-0.02646068303824742</v>
       </c>
       <c r="C66">
-        <v>0.03789763250506937</v>
+        <v>0.00544766970991818</v>
       </c>
       <c r="D66">
-        <v>-0.009044177537012872</v>
+        <v>0.08732490926311463</v>
       </c>
       <c r="E66">
-        <v>0.04421890879692619</v>
+        <v>0.01070399897064422</v>
       </c>
       <c r="F66">
-        <v>-0.05878683634568484</v>
+        <v>0.03671309241860658</v>
       </c>
       <c r="G66">
-        <v>0.01805896356645528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0341422711327995</v>
+      </c>
+      <c r="H66">
+        <v>-0.07383140046930441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01797046212241464</v>
+        <v>-0.04384073007278123</v>
       </c>
       <c r="C67">
-        <v>-0.009486334445566026</v>
+        <v>0.02015797187075377</v>
       </c>
       <c r="D67">
-        <v>0.007404109202419405</v>
+        <v>-0.003092752816463534</v>
       </c>
       <c r="E67">
-        <v>-0.02459457440433686</v>
+        <v>-0.002013282538953833</v>
       </c>
       <c r="F67">
-        <v>-0.0342765095559801</v>
+        <v>0.01153718897426917</v>
       </c>
       <c r="G67">
-        <v>-0.02046307532311064</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.008561065440680643</v>
+      </c>
+      <c r="H67">
+        <v>-0.03980396380212298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06109864849649295</v>
+        <v>-0.1588713566375773</v>
       </c>
       <c r="C68">
-        <v>-0.0381478928830137</v>
+        <v>0.02070767627520619</v>
       </c>
       <c r="D68">
-        <v>-0.07153414339923131</v>
+        <v>-0.2175997907674304</v>
       </c>
       <c r="E68">
-        <v>-0.1869789080649306</v>
+        <v>0.02103783537225836</v>
       </c>
       <c r="F68">
-        <v>-0.06841998535856463</v>
+        <v>-0.05803510300032105</v>
       </c>
       <c r="G68">
-        <v>-0.03560393417616085</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01921241359218588</v>
+      </c>
+      <c r="H68">
+        <v>0.03771309953611713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07356335350723822</v>
+        <v>-0.0588889599754306</v>
       </c>
       <c r="C69">
-        <v>0.0286795213386541</v>
+        <v>0.02874217935471784</v>
       </c>
       <c r="D69">
-        <v>-0.02235723164424634</v>
+        <v>0.03785857861511431</v>
       </c>
       <c r="E69">
-        <v>0.01527741397051329</v>
+        <v>0.004526213444603661</v>
       </c>
       <c r="F69">
-        <v>0.001094511835131665</v>
+        <v>0.03024715388867056</v>
       </c>
       <c r="G69">
-        <v>0.07591185270411399</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01130180972067504</v>
+      </c>
+      <c r="H69">
+        <v>0.00254964486053428</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07766184713253224</v>
+        <v>-0.1504418707944842</v>
       </c>
       <c r="C71">
-        <v>-0.02459208904814173</v>
+        <v>0.02793462088748367</v>
       </c>
       <c r="D71">
-        <v>-0.06008618855772271</v>
+        <v>-0.2004279281267979</v>
       </c>
       <c r="E71">
-        <v>-0.2205987341412898</v>
+        <v>0.0226030779918934</v>
       </c>
       <c r="F71">
-        <v>-0.07289785267048673</v>
+        <v>-0.06949736315177238</v>
       </c>
       <c r="G71">
-        <v>0.003204711493083216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.0154833008208691</v>
+      </c>
+      <c r="H71">
+        <v>0.02439728556733412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1091887698861158</v>
+        <v>-0.08444275401365754</v>
       </c>
       <c r="C72">
-        <v>0.04410848493364537</v>
+        <v>0.04065781951039486</v>
       </c>
       <c r="D72">
-        <v>-0.07483548782962784</v>
+        <v>0.08098216251976835</v>
       </c>
       <c r="E72">
-        <v>0.04568823883874173</v>
+        <v>0.007335650564183283</v>
       </c>
       <c r="F72">
-        <v>-0.1271211075671588</v>
+        <v>0.08050859642714174</v>
       </c>
       <c r="G72">
-        <v>-0.0977982015188118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05348905855368184</v>
+      </c>
+      <c r="H72">
+        <v>-0.1839829761861795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2471773602305526</v>
+        <v>-0.2390561209523047</v>
       </c>
       <c r="C73">
-        <v>0.07689366771585156</v>
+        <v>0.04894171810214662</v>
       </c>
       <c r="D73">
-        <v>0.0005716978372706225</v>
+        <v>0.06538153669699917</v>
       </c>
       <c r="E73">
-        <v>-0.06027917861604775</v>
+        <v>0.07834222185646486</v>
       </c>
       <c r="F73">
-        <v>-0.3457842923634422</v>
+        <v>0.02798291400000155</v>
       </c>
       <c r="G73">
-        <v>-0.4554746011092798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.0625963049016825</v>
+      </c>
+      <c r="H73">
+        <v>-0.5201723071629611</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1363166508963215</v>
+        <v>-0.1162667161681877</v>
       </c>
       <c r="C74">
-        <v>0.02651373225763137</v>
+        <v>0.0520876600841246</v>
       </c>
       <c r="D74">
-        <v>-0.04017365034562973</v>
+        <v>0.09915579976563814</v>
       </c>
       <c r="E74">
-        <v>0.02866807584524786</v>
+        <v>0.005290112380863862</v>
       </c>
       <c r="F74">
-        <v>0.07759327758203707</v>
+        <v>0.0671116368491321</v>
       </c>
       <c r="G74">
-        <v>-0.03744032370233356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05694067970327519</v>
+      </c>
+      <c r="H74">
+        <v>0.02769947185483416</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2263309477941996</v>
+        <v>-0.2276573430654757</v>
       </c>
       <c r="C75">
-        <v>0.08588325533059282</v>
+        <v>0.1033783502611763</v>
       </c>
       <c r="D75">
-        <v>-0.1254761880079688</v>
+        <v>0.1572989238433403</v>
       </c>
       <c r="E75">
-        <v>0.07421365069278739</v>
+        <v>0.02409936778653572</v>
       </c>
       <c r="F75">
-        <v>0.1533738578198396</v>
+        <v>0.1548303995005293</v>
       </c>
       <c r="G75">
-        <v>0.006789344863432397</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1197643892590362</v>
+      </c>
+      <c r="H75">
+        <v>0.1155095478832421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2743624044972742</v>
+        <v>-0.2008969571802889</v>
       </c>
       <c r="C76">
-        <v>0.03964297641188552</v>
+        <v>0.09624644847174955</v>
       </c>
       <c r="D76">
-        <v>-0.1606871209466617</v>
+        <v>0.1528585366809385</v>
       </c>
       <c r="E76">
-        <v>0.0501727742572693</v>
+        <v>-0.01914945343949754</v>
       </c>
       <c r="F76">
-        <v>0.1787297900754184</v>
+        <v>0.1535385126194954</v>
       </c>
       <c r="G76">
-        <v>0.01219438219695983</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.120628659725583</v>
+      </c>
+      <c r="H76">
+        <v>0.131614677008315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1432270104251903</v>
+        <v>-0.07075616323854582</v>
       </c>
       <c r="C77">
-        <v>0.02860700359250298</v>
+        <v>0.009530071592404031</v>
       </c>
       <c r="D77">
-        <v>0.06355301435710098</v>
+        <v>0.07314074356468414</v>
       </c>
       <c r="E77">
-        <v>0.08840315552753976</v>
+        <v>0.01563509359129515</v>
       </c>
       <c r="F77">
-        <v>-0.1584407392261279</v>
+        <v>-0.03111445531290576</v>
       </c>
       <c r="G77">
-        <v>0.2104682115988319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09551985742881143</v>
+      </c>
+      <c r="H77">
+        <v>0.02066910791007412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06148364714476943</v>
+        <v>-0.03711063835042398</v>
       </c>
       <c r="C78">
-        <v>0.02786783339440151</v>
+        <v>0.0101749529576762</v>
       </c>
       <c r="D78">
-        <v>0.001872923130171384</v>
+        <v>0.06365228851270668</v>
       </c>
       <c r="E78">
-        <v>0.09837899862046327</v>
+        <v>0.002864339447323552</v>
       </c>
       <c r="F78">
-        <v>-0.05460407378136958</v>
+        <v>0.02548891796100011</v>
       </c>
       <c r="G78">
-        <v>0.06370238748815413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.04670689907655334</v>
+      </c>
+      <c r="H78">
+        <v>-0.05765946553144619</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1641564006166638</v>
+        <v>-0.1559109139767376</v>
       </c>
       <c r="C80">
-        <v>-0.9346558712295399</v>
+        <v>0.04745482735765881</v>
       </c>
       <c r="D80">
-        <v>-0.1441313945960127</v>
+        <v>0.05053703562226022</v>
       </c>
       <c r="E80">
-        <v>0.2367358160271514</v>
+        <v>-0.9593168161617036</v>
       </c>
       <c r="F80">
-        <v>-0.05040441616683758</v>
+        <v>-0.1562663750416935</v>
       </c>
       <c r="G80">
-        <v>-0.04327970783793511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.09153065471307106</v>
+      </c>
+      <c r="H80">
+        <v>-0.01986649378105757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1682722006073665</v>
+        <v>-0.1484673021095521</v>
       </c>
       <c r="C81">
-        <v>0.0442846508260363</v>
+        <v>0.06649060401063669</v>
       </c>
       <c r="D81">
-        <v>-0.1084452027772306</v>
+        <v>0.09856400798139668</v>
       </c>
       <c r="E81">
-        <v>0.05188852980316978</v>
+        <v>-0.003122222417500221</v>
       </c>
       <c r="F81">
-        <v>0.1447891825700348</v>
+        <v>0.09691982103902363</v>
       </c>
       <c r="G81">
-        <v>-0.0294814972328618</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.077144295980933</v>
+      </c>
+      <c r="H81">
+        <v>0.0841289870154249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05008752235176556</v>
+        <v>-0.03321468125067615</v>
       </c>
       <c r="C83">
-        <v>0.03541180175355681</v>
+        <v>0.005801537149001629</v>
       </c>
       <c r="D83">
-        <v>0.0290810266435591</v>
+        <v>0.023506879398455</v>
       </c>
       <c r="E83">
-        <v>0.0267037926886631</v>
+        <v>0.01515361758912144</v>
       </c>
       <c r="F83">
-        <v>-0.04479375626372541</v>
+        <v>0.002364741745259063</v>
       </c>
       <c r="G83">
-        <v>0.05481908451650404</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04333178501829471</v>
+      </c>
+      <c r="H83">
+        <v>-0.03815544272005543</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2492766061928889</v>
+        <v>-0.214287695609587</v>
       </c>
       <c r="C85">
-        <v>0.05937950542846158</v>
+        <v>0.08591425171447999</v>
       </c>
       <c r="D85">
-        <v>-0.129216223452372</v>
+        <v>0.1594288380893384</v>
       </c>
       <c r="E85">
-        <v>0.05767457971498395</v>
+        <v>0.01438101426452855</v>
       </c>
       <c r="F85">
-        <v>0.1583003116331556</v>
+        <v>0.1394889274204983</v>
       </c>
       <c r="G85">
-        <v>0.0430618850312152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1321440564434908</v>
+      </c>
+      <c r="H85">
+        <v>0.09302315068978649</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00305981490326615</v>
+        <v>-0.01896782054133388</v>
       </c>
       <c r="C86">
-        <v>-0.004269130181418142</v>
+        <v>-0.0003810767133413276</v>
       </c>
       <c r="D86">
-        <v>0.01791883769096227</v>
+        <v>0.003709837379322534</v>
       </c>
       <c r="E86">
-        <v>0.04663694931235883</v>
+        <v>0.01110389099455711</v>
       </c>
       <c r="F86">
-        <v>-0.06396952372159295</v>
+        <v>-0.01368000784454106</v>
       </c>
       <c r="G86">
-        <v>0.03780889695532125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06880193763758682</v>
+      </c>
+      <c r="H86">
+        <v>-0.0639098716076881</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03672932560928129</v>
+        <v>-0.0291399352163729</v>
       </c>
       <c r="C87">
-        <v>0.008843490261913264</v>
+        <v>0.00306067552723375</v>
       </c>
       <c r="D87">
-        <v>0.003919844781528746</v>
+        <v>0.03105184963049307</v>
       </c>
       <c r="E87">
-        <v>0.01962694230452922</v>
+        <v>0.003843139589953227</v>
       </c>
       <c r="F87">
-        <v>-0.1006165134240187</v>
+        <v>0.006309631248932245</v>
       </c>
       <c r="G87">
-        <v>0.03875612857071788</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07720859016138433</v>
+      </c>
+      <c r="H87">
+        <v>-0.06425760426646222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01141479386148845</v>
+        <v>-0.03797462780829875</v>
       </c>
       <c r="C88">
-        <v>-0.009285004945447942</v>
+        <v>-0.01041834016736805</v>
       </c>
       <c r="D88">
-        <v>-0.01843195418376541</v>
+        <v>0.001155639877134434</v>
       </c>
       <c r="E88">
-        <v>0.003029820659124462</v>
+        <v>-0.009564704184106066</v>
       </c>
       <c r="F88">
-        <v>-0.01652652030418576</v>
+        <v>0.01085743169631013</v>
       </c>
       <c r="G88">
-        <v>0.06662926981291259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004223508707064671</v>
+      </c>
+      <c r="H88">
+        <v>-0.009776820108049214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09059487962781676</v>
+        <v>-0.2418607280400557</v>
       </c>
       <c r="C89">
-        <v>-0.01715776274421207</v>
+        <v>0.04088016789144579</v>
       </c>
       <c r="D89">
-        <v>-0.07392923780381946</v>
+        <v>-0.3470064473588908</v>
       </c>
       <c r="E89">
-        <v>-0.2873056705997046</v>
+        <v>0.04948974422882441</v>
       </c>
       <c r="F89">
-        <v>-0.1247724820918421</v>
+        <v>-0.06999177137429059</v>
       </c>
       <c r="G89">
-        <v>0.06267638139570079</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02797501526109824</v>
+      </c>
+      <c r="H89">
+        <v>0.01351456139372662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08059908899325559</v>
+        <v>-0.1988642428078634</v>
       </c>
       <c r="C90">
-        <v>-0.07205999058429639</v>
+        <v>0.03460204274655541</v>
       </c>
       <c r="D90">
-        <v>-0.08855537296753133</v>
+        <v>-0.3034943651534381</v>
       </c>
       <c r="E90">
-        <v>-0.3130837010410317</v>
+        <v>0.02911049120023328</v>
       </c>
       <c r="F90">
-        <v>-0.09918332624414009</v>
+        <v>-0.08639572602669221</v>
       </c>
       <c r="G90">
-        <v>0.04121651702164406</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02961139389290358</v>
+      </c>
+      <c r="H90">
+        <v>0.06106840423766535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2983919061979079</v>
+        <v>-0.2342388865645579</v>
       </c>
       <c r="C91">
-        <v>0.06973021883211838</v>
+        <v>0.1044651398967328</v>
       </c>
       <c r="D91">
-        <v>-0.1239418163107806</v>
+        <v>0.1513409602062248</v>
       </c>
       <c r="E91">
-        <v>0.02593225888694508</v>
+        <v>0.01571559305195116</v>
       </c>
       <c r="F91">
-        <v>0.2416237946297808</v>
+        <v>0.1446040045384506</v>
       </c>
       <c r="G91">
-        <v>-0.0303609719823764</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.145639972250025</v>
+      </c>
+      <c r="H91">
+        <v>0.1701004159742524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1613346070782871</v>
+        <v>-0.2428102871564828</v>
       </c>
       <c r="C92">
-        <v>-0.06991936658563491</v>
+        <v>0.09611564653146586</v>
       </c>
       <c r="D92">
-        <v>-0.1584061603870075</v>
+        <v>-0.2366708656022283</v>
       </c>
       <c r="E92">
-        <v>-0.466044094285302</v>
+        <v>0.01519355095982973</v>
       </c>
       <c r="F92">
-        <v>0.06542932755507774</v>
+        <v>-0.0471491523852148</v>
       </c>
       <c r="G92">
-        <v>0.4411530160215181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.004215807768190244</v>
+      </c>
+      <c r="H92">
+        <v>0.1647549312320678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0873150409208583</v>
+        <v>-0.2226013111200289</v>
       </c>
       <c r="C93">
-        <v>-0.07675566331954528</v>
+        <v>0.04671993314933792</v>
       </c>
       <c r="D93">
-        <v>-0.09740046760371736</v>
+        <v>-0.3260851878827519</v>
       </c>
       <c r="E93">
-        <v>-0.4167571074756009</v>
+        <v>0.04428061043751494</v>
       </c>
       <c r="F93">
-        <v>-0.07286881629954753</v>
+        <v>-0.1036168226470622</v>
       </c>
       <c r="G93">
-        <v>-0.03163033419541872</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04017286378518105</v>
+      </c>
+      <c r="H93">
+        <v>0.0103279836335217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2915222246806489</v>
+        <v>-0.2575255643595437</v>
       </c>
       <c r="C94">
-        <v>0.1111298942163008</v>
+        <v>0.09515539566518955</v>
       </c>
       <c r="D94">
-        <v>-0.2058211248082403</v>
+        <v>0.1389742176961886</v>
       </c>
       <c r="E94">
-        <v>0.0627698111177456</v>
+        <v>0.03265026847080592</v>
       </c>
       <c r="F94">
-        <v>0.244469607459117</v>
+        <v>0.1911254343899412</v>
       </c>
       <c r="G94">
-        <v>-0.09183022399895893</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1402780014464218</v>
+      </c>
+      <c r="H94">
+        <v>0.1771789571413883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.0771429307387182</v>
+        <v>-0.05320169192476866</v>
       </c>
       <c r="C95">
-        <v>0.06734714092319274</v>
+        <v>0.02867492883635383</v>
       </c>
       <c r="D95">
-        <v>0.03840403789769428</v>
+        <v>0.09233340625456209</v>
       </c>
       <c r="E95">
-        <v>0.1061200757006614</v>
+        <v>0.0789223844458251</v>
       </c>
       <c r="F95">
-        <v>0.03171478759657773</v>
+        <v>0.002559125314428823</v>
       </c>
       <c r="G95">
-        <v>0.1713897677634869</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.03289035813085198</v>
+      </c>
+      <c r="H95">
+        <v>-0.03376900639362765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1836665195740124</v>
+        <v>-0.1827727334052274</v>
       </c>
       <c r="C98">
-        <v>0.03517219514214739</v>
+        <v>0.07010314926254783</v>
       </c>
       <c r="D98">
-        <v>0.008474207507533483</v>
+        <v>0.0375177018173601</v>
       </c>
       <c r="E98">
-        <v>-0.06997936714851351</v>
+        <v>0.05277427936211068</v>
       </c>
       <c r="F98">
-        <v>-0.177614890849332</v>
+        <v>-0.001791973268064949</v>
       </c>
       <c r="G98">
-        <v>-0.3442117515977912</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.0766802320928978</v>
+      </c>
+      <c r="H98">
+        <v>-0.3842030846840832</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005384207180372761</v>
+        <v>-0.01411489161114481</v>
       </c>
       <c r="C101">
-        <v>0.01102070226002176</v>
+        <v>-0.0009078145024755769</v>
       </c>
       <c r="D101">
-        <v>-0.004249582837638623</v>
+        <v>0.01026617215524727</v>
       </c>
       <c r="E101">
-        <v>0.1091340932912834</v>
+        <v>-0.003520336047569856</v>
       </c>
       <c r="F101">
-        <v>-0.1454781510970216</v>
+        <v>0.01656933014671085</v>
       </c>
       <c r="G101">
-        <v>0.1860057242481774</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1087731249143688</v>
+      </c>
+      <c r="H101">
+        <v>0.03291245503058716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09843937909142472</v>
+        <v>-0.1030670435563605</v>
       </c>
       <c r="C102">
-        <v>0.02347180724349444</v>
+        <v>0.03386965950573666</v>
       </c>
       <c r="D102">
-        <v>-0.04101201937907874</v>
+        <v>0.07811051470323288</v>
       </c>
       <c r="E102">
-        <v>0.05974906015902585</v>
+        <v>7.08642166774597e-05</v>
       </c>
       <c r="F102">
-        <v>0.132396752294991</v>
+        <v>0.06909661498560336</v>
       </c>
       <c r="G102">
-        <v>0.03359288648847224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07340547060624564</v>
+      </c>
+      <c r="H102">
+        <v>0.07499264046106921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02677394402850531</v>
+        <v>-0.01977088969424093</v>
       </c>
       <c r="C103">
-        <v>0.009855487372574315</v>
+        <v>0.007595618946264844</v>
       </c>
       <c r="D103">
-        <v>-0.01254065735701376</v>
+        <v>0.0174328467953786</v>
       </c>
       <c r="E103">
-        <v>0.01691615405479567</v>
+        <v>-0.007001196364450984</v>
       </c>
       <c r="F103">
-        <v>0.01038349365116535</v>
+        <v>0.01604236469930557</v>
       </c>
       <c r="G103">
-        <v>0.03711894574666089</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-3.714990753706519e-05</v>
+      </c>
+      <c r="H103">
+        <v>0.008624705635726194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2747474450928478</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9446131130779805</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.004754612345387496</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02642159783485134</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.146142976562936</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.0100555886247102</v>
+      </c>
+      <c r="H104">
+        <v>0.03777277247776305</v>
       </c>
     </row>
   </sheetData>
